--- a/data/resumes_scrubbed/confirmations/98_2.xlsx
+++ b/data/resumes_scrubbed/confirmations/98_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/Data/ResumesScrubbed/Confirmations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{BFC2B36F-C4B9-4202-8569-EA11B079F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C432B11C-17AF-4067-808F-27A4CF95EB35}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:40009_{BFC2B36F-C4B9-4202-8569-EA11B079F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5734222B-E76A-46DB-88B3-F57906547554}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
-  <si>
-    <t>Summary'</t>
-  </si>
-  <si>
-    <t>Total received (including 26 carried over from the first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Navy </t>
   </si>
   <si>
-    <t xml:space="preserve">     Carryover nominations</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marine Corps </t>
   </si>
   <si>
@@ -46,18 +34,6 @@
     <t xml:space="preserve">Army </t>
   </si>
   <si>
-    <t xml:space="preserve">     Confirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Recess reappointments </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total confirmed </t>
   </si>
   <si>
@@ -67,12 +43,6 @@
     <t>Total withdrawn</t>
   </si>
   <si>
-    <t xml:space="preserve">Recess reappointments </t>
-  </si>
-  <si>
-    <t>Air Force nominations (including 26 carried over fromthe first session),</t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
@@ -91,7 +61,58 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Total carryover</t>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Recess reappointments </t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
+  </si>
+  <si>
+    <t>Total carryover nominations</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total recess reappointments </t>
   </si>
 </sst>
 </file>
@@ -645,6 +666,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,7 +990,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -977,15 +1002,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>98</v>
@@ -993,7 +1018,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1001,7 +1026,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>30704</v>
@@ -1009,7 +1034,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>30967</v>
@@ -1017,12 +1042,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>14031</v>
@@ -1030,7 +1055,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>14031</v>
@@ -1038,12 +1063,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>8855</v>
@@ -1051,7 +1076,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>8855</v>
@@ -1059,12 +1084,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <v>11818</v>
@@ -1072,7 +1097,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>26</v>
@@ -1080,7 +1105,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
         <v>11844</v>
@@ -1088,12 +1113,12 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>2995</v>
@@ -1101,7 +1126,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>2995</v>
@@ -1109,12 +1134,12 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>4127</v>
@@ -1122,7 +1147,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>4001</v>
@@ -1130,7 +1155,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>107</v>
@@ -1138,7 +1163,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1146,7 +1171,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>17</v>
@@ -1154,54 +1179,49 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>41826</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3">
-        <v>41826</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>41726</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3">
-        <v>41726</v>
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2">
         <v>17</v>
       </c>
     </row>
